--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:37:23+00:00</t>
+    <t>2025-11-13T10:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -524,6 +524,202 @@
     <t>PTH-3</t>
   </si>
   <si>
+    <t>CarePlan.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
     <t>CarePlan.instantiatesCanonical</t>
   </si>
   <si>
@@ -631,9 +827,6 @@
     <t>Allows clinicians to determine whether the plan is actionable or not.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
@@ -676,10 +869,6 @@
     <t>CarePlan.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Type of plan</t>
   </si>
   <si>
@@ -692,23 +881,13 @@
     <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category|4.0.1</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j367-type-projet-personnalise-ms</t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>CarePlan.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Human-friendly name for the care plan</t>
@@ -796,10 +975,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period plan covers</t>
   </si>
   <si>
@@ -940,9 +1115,6 @@
     <t>CarePlan.supportingInfo</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
@@ -985,34 +1157,10 @@
     <t>CarePlan.supportingInfo.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CarePlan.supportingInfo:usager.extension</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CarePlan.supportingInfo:usager.reference</t>
@@ -1051,9 +1199,6 @@
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
@@ -1225,6 +1370,9 @@
   </si>
   <si>
     <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Identifies the results of the activity.</t>
@@ -1987,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2015,13 +2163,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.77734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3425,7 +3573,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3434,7 +3582,7 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>164</v>
@@ -3494,22 +3642,22 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>168</v>
@@ -3530,7 +3678,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3546,10 +3694,10 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>170</v>
@@ -3558,7 +3706,7 @@
         <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3596,19 +3744,19 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3620,10 +3768,10 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>168</v>
@@ -3644,36 +3792,38 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3698,13 +3848,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3722,13 +3872,13 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3737,35 +3887,35 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3777,19 +3927,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3814,13 +3964,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3838,13 +3988,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -3853,24 +4003,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3881,7 +4031,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3893,18 +4043,20 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3916,7 +4068,7 @@
         <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>80</v>
@@ -3952,13 +4104,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3970,21 +4122,21 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3992,7 +4144,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4001,26 +4153,24 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4032,7 +4182,7 @@
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -4044,13 +4194,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4068,10 +4218,10 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -4083,24 +4233,24 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4108,7 +4258,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4117,26 +4267,22 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4160,13 +4306,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4184,10 +4330,10 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
@@ -4199,24 +4345,24 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4239,20 +4385,18 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4276,13 +4420,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4300,13 +4444,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4318,21 +4462,21 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4340,10 +4484,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4355,13 +4499,13 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4412,13 +4556,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4427,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4441,10 +4585,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4455,7 +4599,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4467,18 +4611,18 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4526,13 +4670,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4541,13 +4685,13 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4555,21 +4699,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4581,16 +4725,18 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4638,13 +4784,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4653,35 +4799,35 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4696,15 +4842,17 @@
         <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4752,13 +4900,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4767,35 +4915,35 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4807,20 +4955,18 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4868,13 +5014,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4883,32 +5029,32 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -4917,22 +5063,26 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4956,13 +5106,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4980,10 +5130,10 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>88</v>
@@ -4995,24 +5145,24 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5020,7 +5170,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5029,24 +5179,26 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5070,13 +5222,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5094,10 +5246,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -5109,13 +5261,13 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5137,7 +5289,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5146,10 +5298,10 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>275</v>
@@ -5160,7 +5312,9 @@
       <c r="N28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5184,13 +5338,11 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5229,7 +5381,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5237,10 +5389,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5248,10 +5400,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5260,21 +5412,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5322,13 +5472,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5337,13 +5487,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5351,10 +5501,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5365,7 +5515,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5377,19 +5527,17 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5438,13 +5586,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5453,35 +5601,35 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5490,23 +5638,19 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5542,23 +5686,25 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5567,34 +5713,32 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5606,23 +5750,21 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5670,13 +5812,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5688,25 +5830,25 @@
         <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5722,19 +5864,23 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5782,7 +5928,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5794,38 +5940,38 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5834,20 +5980,18 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5884,40 +6028,40 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5925,10 +6069,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5951,16 +6095,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6019,19 +6163,19 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6039,10 +6183,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6053,7 +6197,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6062,19 +6206,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6100,37 +6244,37 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6142,7 +6286,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6156,7 +6300,7 @@
         <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6167,7 +6311,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6176,10 +6320,10 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>338</v>
@@ -6187,10 +6331,10 @@
       <c r="M37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6238,13 +6382,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6253,13 +6397,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6270,7 +6414,7 @@
         <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6278,10 +6422,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6293,7 +6437,7 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>345</v>
@@ -6304,7 +6448,9 @@
       <c r="N38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6313,7 +6459,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6352,13 +6498,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6367,28 +6513,26 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6397,7 +6541,7 @@
         <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6409,19 +6553,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6458,19 +6602,17 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6485,7 +6627,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6499,12 +6641,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6525,16 +6669,20 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>222</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6582,25 +6730,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6611,21 +6759,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6637,17 +6785,15 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6684,37 +6830,37 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6725,21 +6871,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6748,19 +6894,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>171</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6798,37 +6944,37 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>173</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6839,10 +6985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6865,16 +7011,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6900,13 +7046,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6924,7 +7070,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6933,7 +7079,7 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
@@ -6953,10 +7099,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6979,16 +7125,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7014,13 +7160,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7038,7 +7184,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7056,7 +7202,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7067,10 +7213,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7078,7 +7224,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -7093,16 +7239,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7113,7 +7259,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7152,7 +7298,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7170,7 +7316,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7181,10 +7327,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7192,10 +7338,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7204,23 +7350,21 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7229,7 +7373,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7268,13 +7412,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7286,29 +7430,31 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7323,17 +7469,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7382,7 +7530,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7394,13 +7542,13 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>373</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7411,10 +7559,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7437,13 +7585,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7494,7 +7642,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7512,7 +7660,7 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7523,10 +7671,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7552,10 +7700,10 @@
         <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>150</v>
@@ -7596,19 +7744,19 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>173</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7626,7 +7774,7 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7637,46 +7785,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7724,19 +7870,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7753,10 +7899,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7767,7 +7913,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7776,19 +7922,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7814,13 +7960,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7844,7 +7990,7 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7856,7 +8002,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7867,10 +8013,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7881,7 +8027,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7890,23 +8036,21 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7960,7 +8104,7 @@
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -7969,10 +8113,10 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7983,10 +8127,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7994,10 +8138,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8006,23 +8150,21 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8031,7 +8173,7 @@
         <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>80</v>
@@ -8070,13 +8212,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8088,21 +8230,21 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>131</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8113,7 +8255,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8125,19 +8267,19 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8186,39 +8328,39 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8229,7 +8371,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8241,17 +8383,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8300,25 +8442,25 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8329,10 +8471,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8355,13 +8497,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8412,7 +8554,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8430,7 +8572,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8441,10 +8583,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8470,10 +8612,10 @@
         <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>150</v>
@@ -8526,7 +8668,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>319</v>
+        <v>173</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8544,7 +8686,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8555,14 +8697,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8584,10 +8726,10 @@
         <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>150</v>
@@ -8642,7 +8784,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8671,10 +8813,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8685,7 +8827,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8697,18 +8839,18 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8732,13 +8874,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>197</v>
+        <v>435</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8756,13 +8898,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8774,7 +8916,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8785,10 +8927,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8811,17 +8953,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>165</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8870,7 +9014,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8885,10 +9029,10 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>167</v>
+        <v>443</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>168</v>
+        <v>444</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8899,10 +9043,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8925,19 +9069,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>102</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>170</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>172</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8986,7 +9130,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9001,24 +9145,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9041,19 +9185,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9078,13 +9222,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9102,7 +9246,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9111,30 +9255,30 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9145,7 +9289,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9157,18 +9301,18 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9192,13 +9336,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9216,25 +9360,25 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9245,10 +9389,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9259,7 +9403,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9271,17 +9415,15 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>451</v>
+        <v>164</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>452</v>
+        <v>165</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9330,25 +9472,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9359,14 +9501,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9385,18 +9527,18 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>361</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>456</v>
+        <v>170</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9444,7 +9586,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>455</v>
+        <v>173</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9456,13 +9598,13 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9473,21 +9615,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9496,22 +9638,22 @@
         <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>462</v>
+        <v>150</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>463</v>
+        <v>151</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9536,13 +9678,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9560,31 +9702,31 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>467</v>
+        <v>131</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
@@ -9615,7 +9757,7 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>470</v>
@@ -9623,10 +9765,10 @@
       <c r="M67" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9650,13 +9792,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9689,10 +9831,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9703,10 +9845,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9717,38 +9859,34 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>476</v>
+        <v>229</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N68" t="s" s="2">
         <v>478</v>
       </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>479</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9792,13 +9930,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -9807,10 +9945,10 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>481</v>
+        <v>231</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>482</v>
+        <v>232</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9821,10 +9959,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9835,7 +9973,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -9847,17 +9985,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>484</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>485</v>
+        <v>234</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9906,13 +10046,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -9921,24 +10061,24 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9961,19 +10101,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -9998,13 +10138,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10022,7 +10162,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10037,24 +10177,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10077,20 +10217,18 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>498</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10114,13 +10252,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10138,7 +10276,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10153,24 +10291,24 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10181,7 +10319,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10193,15 +10331,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10226,13 +10366,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10250,13 +10390,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10265,35 +10405,35 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>512</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10305,17 +10445,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>515</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10364,13 +10504,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10382,21 +10522,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10404,7 +10544,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>88</v>
@@ -10413,22 +10553,26 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>515</v>
+        <v>108</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10452,13 +10596,13 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -10476,10 +10620,10 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>88</v>
@@ -10491,24 +10635,24 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10531,15 +10675,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10588,7 +10734,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10603,24 +10749,24 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10631,34 +10777,38 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>397</v>
+        <v>524</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="R76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10702,13 +10852,13 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
@@ -10717,16 +10867,926 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>403</v>
+      <c r="M77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T10:43:15+00:00</t>
+    <t>2025-11-17T16:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1144,7 +1144,7 @@
     <t>usager</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-consent)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-consent-accord)
 </t>
   </si>
   <si>
@@ -1249,7 +1249,7 @@
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
-    <t>Consentement de l'usager</t>
+    <t>Consentement usager</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1282,7 +1282,7 @@
     <t>CarePlan.supportingInfo:structure.display</t>
   </si>
   <si>
-    <t>Consentement de la structure</t>
+    <t>Consentement structure</t>
   </si>
   <si>
     <t>CarePlan.goal</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-careplan-projet-perso.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
